--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lgi3-Adam22.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2994946666666666</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H2">
-        <v>0.8984839999999999</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I2">
         <v>0.4989451716962827</v>
       </c>
       <c r="J2">
-        <v>0.4989451716962827</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8328803333333333</v>
+        <v>8.521337333333333</v>
       </c>
       <c r="N2">
-        <v>2.498641</v>
+        <v>25.564012</v>
       </c>
       <c r="O2">
-        <v>0.03917234793046613</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="P2">
-        <v>0.03917234793046614</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="Q2">
-        <v>0.2494432178048889</v>
+        <v>2.552095084200889</v>
       </c>
       <c r="R2">
-        <v>2.244988960244</v>
+        <v>22.968855757808</v>
       </c>
       <c r="S2">
-        <v>0.01954485386391295</v>
+        <v>0.1468608284249291</v>
       </c>
       <c r="T2">
-        <v>0.01954485386391295</v>
+        <v>0.1468608284249291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2994946666666666</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H3">
-        <v>0.8984839999999999</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I3">
         <v>0.4989451716962827</v>
       </c>
       <c r="J3">
-        <v>0.4989451716962827</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>14.620227</v>
       </c>
       <c r="O3">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="P3">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="Q3">
         <v>1.459560003985333</v>
@@ -632,10 +632,10 @@
         <v>13.136040035868</v>
       </c>
       <c r="S3">
-        <v>0.1143622473865731</v>
+        <v>0.08399067599328761</v>
       </c>
       <c r="T3">
-        <v>0.1143622473865731</v>
+        <v>0.08399067599328763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2994946666666666</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H4">
-        <v>0.8984839999999999</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I4">
         <v>0.4989451716962827</v>
       </c>
       <c r="J4">
-        <v>0.4989451716962827</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>46.66696899999999</v>
       </c>
       <c r="O4">
-        <v>0.7316196070296921</v>
+        <v>0.5373208971370899</v>
       </c>
       <c r="P4">
-        <v>0.7316196070296922</v>
+        <v>0.53732089713709</v>
       </c>
       <c r="Q4">
         <v>4.658836108332888</v>
       </c>
       <c r="R4">
-        <v>41.92952497499599</v>
+        <v>41.929524974996</v>
       </c>
       <c r="S4">
-        <v>0.3650380704457966</v>
+        <v>0.2680936672780659</v>
       </c>
       <c r="T4">
-        <v>0.3650380704457967</v>
+        <v>0.2680936672780661</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,7 +726,7 @@
         <v>0.9022829999999999</v>
       </c>
       <c r="I5">
-        <v>0.5010548283037173</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J5">
         <v>0.5010548283037172</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8328803333333333</v>
+        <v>8.521337333333333</v>
       </c>
       <c r="N5">
-        <v>2.498641</v>
+        <v>25.564012</v>
       </c>
       <c r="O5">
-        <v>0.03917234793046613</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="P5">
-        <v>0.03917234793046614</v>
+        <v>0.2943426187002489</v>
       </c>
       <c r="Q5">
-        <v>0.2504979219336667</v>
+        <v>2.562885937710667</v>
       </c>
       <c r="R5">
-        <v>2.254481297403</v>
+        <v>23.065973439396</v>
       </c>
       <c r="S5">
-        <v>0.01962749406655318</v>
+        <v>0.1474817902753197</v>
       </c>
       <c r="T5">
-        <v>0.01962749406655318</v>
+        <v>0.1474817902753197</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,7 +788,7 @@
         <v>0.9022829999999999</v>
       </c>
       <c r="I6">
-        <v>0.5010548283037173</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J6">
         <v>0.5010548283037172</v>
@@ -806,10 +806,10 @@
         <v>14.620227</v>
       </c>
       <c r="O6">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="P6">
-        <v>0.2292080450398417</v>
+        <v>0.1683364841626613</v>
       </c>
       <c r="Q6">
         <v>1.465731364249</v>
@@ -818,10 +818,10 @@
         <v>13.191582278241</v>
       </c>
       <c r="S6">
-        <v>0.1148457976532686</v>
+        <v>0.08434580816937365</v>
       </c>
       <c r="T6">
-        <v>0.1148457976532686</v>
+        <v>0.08434580816937366</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,7 +850,7 @@
         <v>0.9022829999999999</v>
       </c>
       <c r="I7">
-        <v>0.5010548283037173</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J7">
         <v>0.5010548283037172</v>
@@ -868,10 +868,10 @@
         <v>46.66696899999999</v>
       </c>
       <c r="O7">
-        <v>0.7316196070296921</v>
+        <v>0.5373208971370899</v>
       </c>
       <c r="P7">
-        <v>0.7316196070296922</v>
+        <v>0.53732089713709</v>
       </c>
       <c r="Q7">
         <v>4.678534754469666</v>
@@ -880,10 +880,10 @@
         <v>42.10681279022699</v>
       </c>
       <c r="S7">
-        <v>0.3665815365838955</v>
+        <v>0.2692272298590238</v>
       </c>
       <c r="T7">
-        <v>0.3665815365838955</v>
+        <v>0.2692272298590239</v>
       </c>
     </row>
   </sheetData>
